--- a/Attribute_IGM2.xlsx
+++ b/Attribute_IGM2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONDC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437FF7B7-47EE-4FBA-B337-31580CC159BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C5D1FE-705B-4B54-BDB7-97ABA6E7271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{154EF469-5C5F-4835-81BA-B21939D20472}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="94">
   <si>
     <t>Path</t>
   </si>
@@ -155,13 +155,175 @@
   </si>
   <si>
     <t>Attr</t>
+  </si>
+  <si>
+    <t>BAP</t>
+  </si>
+  <si>
+    <t>ISSUE-1</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>"2023-01-15T10:00:00.469Z"</t>
+  </si>
+  <si>
+    <t>PT2H</t>
+  </si>
+  <si>
+    <t>P1D</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>buyerapp.com::ONDC:RET10</t>
+  </si>
+  <si>
+    <t>Sam Manuel</t>
+  </si>
+  <si>
+    <t>"9879879870"</t>
+  </si>
+  <si>
+    <t>sam@yahoo.com</t>
+  </si>
+  <si>
+    <t>NP1</t>
+  </si>
+  <si>
+    <t>CUST1</t>
+  </si>
+  <si>
+    <t>ITM004</t>
+  </si>
+  <si>
+    <t>Issue with product quality</t>
+  </si>
+  <si>
+    <t>Product quality is not correct. facing issues while using the product</t>
+  </si>
+  <si>
+    <t>https://buyerapp.com/additonal-details/desc.txt</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>http://buyerapp.com/addtional-details/img1.png</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Complaint created</t>
+  </si>
+  <si>
+    <t>2023-01-15T10:00:00.469Z</t>
+  </si>
+  <si>
+    <t>The unique identifier for the issue or complaint.</t>
+  </si>
+  <si>
+    <t>Network issue identifier is an unique number assigned to any complaint by the interfacing application at the source.</t>
+  </si>
+  <si>
+    <t>describe issue status</t>
+  </si>
+  <si>
+    <t>timestamp for the creation of the issue</t>
+  </si>
+  <si>
+    <t>timestamp for the capturing the time an issue was last updated</t>
+  </si>
+  <si>
+    <t>Describes time in its various forms. It can be a single point in time; duration; or a structured timetable of operations</t>
+  </si>
+  <si>
+    <t>Reference to another object</t>
+  </si>
+  <si>
+    <t>Type of referenced object</t>
+  </si>
+  <si>
+    <t>ID of the actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of the actor </t>
+  </si>
+  <si>
+    <t>Organization name of the actor</t>
+  </si>
+  <si>
+    <t>Name of a repersentative of the  actor</t>
+  </si>
+  <si>
+    <t>Phone no of the actor</t>
+  </si>
+  <si>
+    <t>Email ID of the actor</t>
+  </si>
+  <si>
+    <t>ID of the actor where the complaint was raised</t>
+  </si>
+  <si>
+    <t>ID of the Netework participant</t>
+  </si>
+  <si>
+    <t>Category of the complaint</t>
+  </si>
+  <si>
+    <t>Short description about the complainant</t>
+  </si>
+  <si>
+    <t>Long description about the complainant</t>
+  </si>
+  <si>
+    <t>Additional desc about complainant</t>
+  </si>
+  <si>
+    <t>Image link</t>
+  </si>
+  <si>
+    <t>Description about the last action ID</t>
+  </si>
+  <si>
+    <t>Describes about the action ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the action code </t>
+  </si>
+  <si>
+    <t>Describes the short description</t>
+  </si>
+  <si>
+    <t>Describes the update at timestamp of the action</t>
+  </si>
+  <si>
+    <t>Tells about who is performing the action</t>
+  </si>
+  <si>
+    <t>Name of the actor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +345,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,12 +382,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,6 +406,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -247,6 +430,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>4432300</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10B3587-F697-E3C3-D0BE-091E681E8B09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="on_issue!$F$2:$F$22" spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="11734800" y="419100"/>
+              <a:ext cx="5321300" cy="4438650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,22 +798,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4065-1599-4E50-9FC3-AB7DF047AD33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4065-1599-4E50-9FC3-AB7DF047AD33}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="63.54296875" customWidth="1"/>
+    <col min="6" max="6" width="73.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,12 +846,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,12 +866,14 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,12 +884,14 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -639,12 +902,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -655,12 +920,14 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="26.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,12 +938,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="26.5" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -687,12 +956,14 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -703,12 +974,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -719,12 +992,14 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -735,12 +1010,14 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -751,12 +1028,14 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -767,12 +1046,14 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="29.5" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -783,12 +1064,14 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -799,12 +1082,14 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -815,12 +1100,14 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -831,12 +1118,14 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -847,12 +1136,14 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -863,12 +1154,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -879,12 +1172,14 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -895,12 +1190,14 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="26.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -911,12 +1208,14 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="26.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -927,12 +1226,14 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -943,12 +1244,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -959,12 +1261,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -975,12 +1278,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -991,12 +1295,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.5" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1007,12 +1312,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1023,12 +1329,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1039,12 +1346,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1055,10 +1363,11 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1070,25 +1379,29 @@
     <hyperlink ref="A31" r:id="rId6" display="http://message.issue.actions.actor_details.name/" xr:uid="{D1E78FCE-CFFE-4EB8-9924-E7D5A974FF66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81239767-B46D-449D-BB77-AA6C8D4888EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81239767-B46D-449D-BB77-AA6C8D4888EC}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="44.453125" customWidth="1"/>
     <col min="2" max="2" width="30.90625" customWidth="1"/>
     <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="66.81640625" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1101,14 +1414,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="26.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1121,9 +1434,14 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,9 +1454,14 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,9 +1474,11 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,9 +1491,14 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,9 +1511,14 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1196,9 +1531,14 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,9 +1551,14 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,9 +1571,14 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,9 +1591,14 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1256,9 +1611,14 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,9 +1631,14 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1286,9 +1651,14 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1301,9 +1671,14 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1316,9 +1691,14 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,9 +1711,14 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1731,14 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1361,9 +1751,14 @@
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,9 +1771,14 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1391,9 +1791,14 @@
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1406,9 +1811,14 @@
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1421,9 +1831,14 @@
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.5" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1436,9 +1851,11 @@
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1451,9 +1868,14 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,9 +1888,14 @@
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1481,9 +1908,14 @@
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1496,9 +1928,14 @@
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1511,9 +1948,14 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1526,9 +1968,14 @@
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1541,9 +1988,14 @@
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +2008,12 @@
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1568,5 +2025,6 @@
     <hyperlink ref="A31" r:id="rId6" display="http://message.issue.actions.actor_details.name/" xr:uid="{1F886E0D-85E1-4F2B-96AB-9496594D66BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Attribute_IGM2.xlsx
+++ b/Attribute_IGM2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONDC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONDC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C5D1FE-705B-4B54-BDB7-97ABA6E7271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83535AAD-DF47-4387-BEB2-D3A215CD8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{154EF469-5C5F-4835-81BA-B21939D20472}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{154EF469-5C5F-4835-81BA-B21939D20472}"/>
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="98">
   <si>
     <t>Path</t>
   </si>
@@ -235,24 +235,9 @@
     <t>2023-01-15T10:00:00.469Z</t>
   </si>
   <si>
-    <t>The unique identifier for the issue or complaint.</t>
-  </si>
-  <si>
     <t>Network issue identifier is an unique number assigned to any complaint by the interfacing application at the source.</t>
   </si>
   <si>
-    <t>describe issue status</t>
-  </si>
-  <si>
-    <t>timestamp for the creation of the issue</t>
-  </si>
-  <si>
-    <t>timestamp for the capturing the time an issue was last updated</t>
-  </si>
-  <si>
-    <t>Describes time in its various forms. It can be a single point in time; duration; or a structured timetable of operations</t>
-  </si>
-  <si>
     <t>Reference to another object</t>
   </si>
   <si>
@@ -277,12 +262,6 @@
     <t>Email ID of the actor</t>
   </si>
   <si>
-    <t>ID of the actor where the complaint was raised</t>
-  </si>
-  <si>
-    <t>ID of the Netework participant</t>
-  </si>
-  <si>
     <t>Category of the complaint</t>
   </si>
   <si>
@@ -295,28 +274,61 @@
     <t>Additional desc about complainant</t>
   </si>
   <si>
-    <t>Image link</t>
-  </si>
-  <si>
-    <t>Description about the last action ID</t>
-  </si>
-  <si>
-    <t>Describes about the action ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describes the action code </t>
-  </si>
-  <si>
-    <t>Describes the short description</t>
-  </si>
-  <si>
     <t>Describes the update at timestamp of the action</t>
   </si>
   <si>
-    <t>Tells about who is performing the action</t>
-  </si>
-  <si>
-    <t>Name of the actor</t>
+    <t>Describes the level of the complaint - ISSUE, GRIEVANCE, DISPUTE</t>
+  </si>
+  <si>
+    <t>Describes the status of the complaint - OPEN, PROCESSING, RESOLVED, CLOSED</t>
+  </si>
+  <si>
+    <t>Describes time for the respondent to provide a response (PROCESSING action)</t>
+  </si>
+  <si>
+    <t>Describes time for the respondent to provide a resolution</t>
+  </si>
+  <si>
+    <t>ID of the actor raising the complaint</t>
+  </si>
+  <si>
+    <t>ID of the Network participant where the complaint is raised</t>
+  </si>
+  <si>
+    <t>Type of url provided in the additional_desc</t>
+  </si>
+  <si>
+    <t>Image(s) link</t>
+  </si>
+  <si>
+    <t>ID of the action performed on the complaint</t>
+  </si>
+  <si>
+    <t>ID of the action being performed</t>
+  </si>
+  <si>
+    <t>Timestamp for the creation of the complaint</t>
+  </si>
+  <si>
+    <t>Timestamp for the capturing the time a complaint was last updated</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
+  </si>
+  <si>
+    <t>Describes the action code (OPEN, PROCESSING, RESOLVED, CLOSED…)</t>
+  </si>
+  <si>
+    <t>Short description of the action performed</t>
+  </si>
+  <si>
+    <t>message.issue.actions.updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the actor (ID of the actor) performing the action </t>
+  </si>
+  <si>
+    <t>Name of an agent of the actor</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,76 +442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>4432300</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Picture 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10B3587-F697-E3C3-D0BE-091E681E8B09}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="on_issue!$F$2:$F$22" spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="11734800" y="419100"/>
-              <a:ext cx="5321300" cy="4438650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,11 +740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4065-1599-4E50-9FC3-AB7DF047AD33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4065-1599-4E50-9FC3-AB7DF047AD33}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -831,11 +773,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="26.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -851,7 +793,7 @@
       <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -871,7 +813,9 @@
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -889,7 +833,9 @@
       <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
@@ -907,7 +853,9 @@
       <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
@@ -925,7 +873,9 @@
       <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="26.5" thickBot="1">
       <c r="A7" s="1" t="s">
@@ -943,7 +893,9 @@
       <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="26.5" thickBot="1">
       <c r="A8" s="1" t="s">
@@ -961,7 +913,9 @@
       <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
@@ -979,7 +933,9 @@
       <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
@@ -997,7 +953,9 @@
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
@@ -1015,7 +973,9 @@
       <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -1033,7 +993,9 @@
       <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
@@ -1051,7 +1013,9 @@
       <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="29.5" thickBot="1">
       <c r="A14" s="2" t="s">
@@ -1069,7 +1033,9 @@
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -1087,7 +1053,9 @@
       <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -1105,7 +1073,9 @@
       <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -1123,7 +1093,9 @@
       <c r="E17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -1141,7 +1113,9 @@
       <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -1159,7 +1133,9 @@
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
@@ -1177,7 +1153,9 @@
       <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
@@ -1195,7 +1173,9 @@
       <c r="E21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="26.5" thickBot="1">
       <c r="A22" s="1" t="s">
@@ -1213,7 +1193,9 @@
       <c r="E22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="26.5" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -1231,7 +1213,9 @@
       <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
@@ -1249,6 +1233,9 @@
       <c r="E24" t="s">
         <v>62</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -1266,6 +1253,9 @@
       <c r="E25" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
@@ -1283,6 +1273,9 @@
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
@@ -1300,6 +1293,9 @@
       <c r="E27" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="26.5" thickBot="1">
       <c r="A28" s="1" t="s">
@@ -1317,6 +1313,9 @@
       <c r="E28" t="s">
         <v>64</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
@@ -1334,6 +1333,9 @@
       <c r="E29" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
@@ -1351,6 +1353,9 @@
       <c r="E30" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
@@ -1367,6 +1372,9 @@
       </c>
       <c r="E31" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1379,17 +1387,15 @@
     <hyperlink ref="A31" r:id="rId6" display="http://message.issue.actions.actor_details.name/" xr:uid="{D1E78FCE-CFFE-4EB8-9924-E7D5A974FF66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81239767-B46D-449D-BB77-AA6C8D4888EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81239767-B46D-449D-BB77-AA6C8D4888EC}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1438,7 +1444,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
@@ -1458,7 +1464,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
@@ -1477,6 +1483,9 @@
       <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
@@ -1495,7 +1504,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
@@ -1515,10 +1524,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.5" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1535,10 +1544,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.5" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
@@ -1575,7 +1584,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
@@ -1595,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1">
@@ -1615,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1">
@@ -1635,7 +1644,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1">
@@ -1655,7 +1664,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1">
@@ -1675,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1">
@@ -1695,7 +1704,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
@@ -1715,7 +1724,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
@@ -1735,7 +1744,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
@@ -1755,7 +1764,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1">
@@ -1775,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1">
@@ -1795,7 +1804,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
@@ -1815,7 +1824,7 @@
         <v>59</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
@@ -1835,7 +1844,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.5" thickBot="1">
@@ -1854,6 +1863,9 @@
       <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="F23" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
@@ -1872,7 +1884,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
@@ -1892,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
@@ -1909,10 +1921,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
@@ -1929,10 +1941,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
@@ -1952,12 +1964,12 @@
         <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1972,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
@@ -1992,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1">
@@ -2012,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2025,6 +2037,5 @@
     <hyperlink ref="A31" r:id="rId6" display="http://message.issue.actions.actor_details.name/" xr:uid="{1F886E0D-85E1-4F2B-96AB-9496594D66BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>